--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -162,6 +162,40 @@
   </si>
   <si>
     <t>修复房东app预约消息跳转白屏，推送预约push代码优化</t>
+  </si>
+  <si>
+    <t>修改签约单状态为已退房同时已经结清状态发送6条短信问题</t>
+  </si>
+  <si>
+    <t>孙伟</t>
+    <rPh sb="0" eb="1">
+      <t>sun'wei</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝账单添加周期性账单，收取月份只可选择第一期</t>
+  </si>
+  <si>
+    <t>租客APP</t>
+    <rPh sb="0" eb="1">
+      <t>zu'k</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <rPh sb="0" eb="1">
+      <t>fang'do</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <rPh sb="0" eb="1">
+      <t>w'x'y</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -340,7 +374,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,6 +390,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -474,10 +520,14 @@
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -852,7 +902,7 @@
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1027,21 +1077,41 @@
       <c r="S3" s="27"/>
       <c r="T3" s="28"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="16">
+        <v>42651</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="16">
+        <v>42651</v>
+      </c>
       <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="J4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="M4" s="24"/>
       <c r="N4" s="16"/>
       <c r="O4" s="24"/>
@@ -1051,21 +1121,41 @@
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="16">
+        <v>42651</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="16">
+        <v>42651</v>
+      </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>
       <c r="O5" s="24"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -194,6 +194,35 @@
     <t>王祥毅</t>
     <rPh sb="0" eb="1">
       <t>w'x'y</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客端查看入住人名称修改</t>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>c'b</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常合同未到期退房订单</t>
+    <rPh sb="0" eb="1">
+      <t>yi'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'dao'qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tui'f</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ding'd</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -902,7 +931,7 @@
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1169,17 +1198,37 @@
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="16">
+        <v>42651</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="16">
+        <v>42651</v>
+      </c>
       <c r="I6" s="15"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="M6" s="24"/>
       <c r="N6" s="16"/>
       <c r="O6" s="24"/>
@@ -1193,17 +1242,37 @@
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16">
+        <v>42651</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="16">
+        <v>42651</v>
+      </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="M7" s="24"/>
       <c r="N7" s="16"/>
       <c r="O7" s="24"/>
@@ -4843,8 +4912,11 @@
   </sheetData>
   <autoFilter ref="A1:S1"/>
   <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -112,9 +112,6 @@
     <t>修正负责人</t>
   </si>
   <si>
-    <t>伙伴手机点击确认收款提示，实收金额大于账单金额，添加失败</t>
-  </si>
-  <si>
     <t>Fix Bug</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -140,13 +137,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>王辉</t>
-    <rPh sb="0" eb="1">
-      <t>wang'hui</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>捷豹组</t>
     <rPh sb="0" eb="1">
       <t>jie'bao'zu</t>
@@ -161,9 +151,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>修复房东app预约消息跳转白屏，推送预约push代码优化</t>
-  </si>
-  <si>
     <t>修改签约单状态为已退房同时已经结清状态发送6条短信问题</t>
   </si>
   <si>
@@ -174,19 +161,9 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>蘑菇宝账单添加周期性账单，收取月份只可选择第一期</t>
-  </si>
-  <si>
     <t>租客APP</t>
     <rPh sb="0" eb="1">
       <t>zu'k</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <rPh sb="0" eb="1">
-      <t>fang'do</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -198,9 +175,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>租客端查看入住人名称修改</t>
-  </si>
-  <si>
     <t>崔斌</t>
     <rPh sb="0" eb="1">
       <t>c'b</t>
@@ -208,22 +182,143 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>异常合同未到期退房订单</t>
+    <t>下期收租日文案提示</t>
     <rPh sb="0" eb="1">
-      <t>yi'c</t>
+      <t>xia'qi</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>he't</t>
+      <t>shou'zu'ri</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen'an</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'shi</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>new feature</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP/房东PC</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang'dong</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易流水默认展示6个月</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'shui</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>wei'dao'qi</t>
+      <t>mo'r</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ge'y</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>武孟华</t>
+    <rPh sb="0" eb="1">
+      <t>w'm'h</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改补录租约新增push消息</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu'y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin'z</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiao'xi</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许多订单下单订单合并支付</t>
+    <rPh sb="0" eb="1">
+      <t>yun'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>duo'ding'd</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dan'ding'dan</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>tui'f</t>
+      <t>ding'd</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>ding'd</t>
+      <t>he'b</t>
     </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认租约新增渠道</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qu'dao</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP/H5</t>
+    <rPh sb="0" eb="1">
+      <t>zu'k</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录租约性别bug</t>
+    <rPh sb="0" eb="1">
+      <t>bu'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing'b</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页显示欠款数目与实际欠款账单不一致</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +498,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,6 +539,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="22">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -557,6 +667,11 @@
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -930,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1018,40 +1133,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="16">
+        <v>42653</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="16">
-        <v>42651</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="H2" s="16">
-        <v>42651</v>
+        <v>42653</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="16"/>
@@ -1062,40 +1177,40 @@
       <c r="S2" s="27"/>
       <c r="T2" s="28"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="16">
+        <v>42653</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="16">
-        <v>42651</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" s="16">
-        <v>42651</v>
+        <v>42653</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="16"/>
@@ -1111,35 +1226,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="16">
+        <v>42653</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="16">
-        <v>42651</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="H4" s="16">
-        <v>42651</v>
+        <v>42653</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M4" s="24"/>
       <c r="N4" s="16"/>
@@ -1150,40 +1265,40 @@
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="16">
+        <v>42653</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="16">
-        <v>42651</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="H5" s="16">
-        <v>42651</v>
+        <v>42653</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>
@@ -1199,35 +1314,35 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="16">
+        <v>42653</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="16">
-        <v>42651</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="H6" s="16">
-        <v>42651</v>
+        <v>42653</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M6" s="24"/>
       <c r="N6" s="16"/>
@@ -1243,35 +1358,35 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="16">
+        <v>42653</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="16">
-        <v>42651</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="H7" s="16">
-        <v>42651</v>
+        <v>42653</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="16"/>
@@ -1286,17 +1401,37 @@
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="16">
+        <v>42653</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="16">
+        <v>42653</v>
+      </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="M8" s="24"/>
       <c r="N8" s="16"/>
       <c r="O8" s="24"/>
@@ -1310,17 +1445,37 @@
       <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="16">
+        <v>42653</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="16">
+        <v>42653</v>
+      </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="J9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="M9" s="24"/>
       <c r="N9" s="16"/>
       <c r="O9" s="24"/>
@@ -4913,7 +5068,7 @@
   <autoFilter ref="A1:S1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" display="租客端查看入住人名称修改"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -212,25 +212,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>交易流水默认展示6个月</t>
-    <rPh sb="0" eb="1">
-      <t>jiao'yi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>liu'shui</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mo'r</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhan'shi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ge'y</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>武孟华</t>
     <rPh sb="0" eb="1">
       <t>w'm'h</t>
@@ -319,6 +300,10 @@
   </si>
   <si>
     <t>首页显示欠款数目与实际欠款账单不一致</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +483,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +524,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="23">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -672,6 +660,7 @@
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1045,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1168,7 +1157,9 @@
       <c r="L2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="N2" s="16"/>
       <c r="O2" s="24"/>
       <c r="P2" s="21"/>
@@ -1181,37 +1172,17 @@
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="16">
-        <v>42653</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="16">
-        <v>42653</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="24"/>
       <c r="N3" s="16"/>
       <c r="O3" s="24"/>
@@ -1256,7 +1227,9 @@
       <c r="L4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="N4" s="16"/>
       <c r="O4" s="24"/>
       <c r="P4" s="21"/>
@@ -1270,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>39</v>
@@ -1300,7 +1273,9 @@
       <c r="L5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="N5" s="16"/>
       <c r="O5" s="24"/>
       <c r="P5" s="21"/>
@@ -1314,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>39</v>
@@ -1336,7 +1311,7 @@
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>31</v>
@@ -1358,13 +1333,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>29</v>
@@ -1380,7 +1355,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>31</v>
@@ -1388,7 +1363,9 @@
       <c r="L7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="24"/>
+      <c r="M7" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="N7" s="16"/>
       <c r="O7" s="24"/>
       <c r="P7" s="21"/>
@@ -1402,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>27</v>
@@ -1432,7 +1409,9 @@
       <c r="L8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="24"/>
+      <c r="M8" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="N8" s="16"/>
       <c r="O8" s="24"/>
       <c r="P8" s="21"/>
@@ -1446,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>27</v>
@@ -1476,7 +1455,9 @@
       <c r="L9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="24"/>
+      <c r="M9" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="N9" s="16"/>
       <c r="O9" s="24"/>
       <c r="P9" s="21"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -234,31 +234,6 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>xiao'xi</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许多订单下单订单合并支付</t>
-    <rPh sb="0" eb="1">
-      <t>yun'xu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>duo'ding'd</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>dan'ding'dan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ding'd</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>he'b</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhi'fu</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1034,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1158,7 +1133,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="24"/>
@@ -1228,7 +1203,7 @@
         <v>32</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="24"/>
@@ -1274,7 +1249,7 @@
         <v>32</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="24"/>
@@ -1288,37 +1263,17 @@
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="16">
-        <v>42653</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="16">
-        <v>42653</v>
-      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="24"/>
       <c r="N6" s="16"/>
       <c r="O6" s="24"/>
@@ -1333,13 +1288,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>29</v>
@@ -1364,7 +1319,7 @@
         <v>32</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="24"/>
@@ -1379,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>27</v>
@@ -1410,7 +1365,7 @@
         <v>32</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="24"/>
@@ -1425,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>27</v>
@@ -1456,7 +1411,7 @@
         <v>32</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="24"/>
@@ -5048,11 +5003,8 @@
   </sheetData>
   <autoFilter ref="A1:S1"/>
   <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="租客端查看入住人名称修改"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -281,6 +281,10 @@
     <t>Pass</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -458,7 +462,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,6 +521,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -624,6 +634,7 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -636,6 +647,7 @@
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1007,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T183"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1135,50 +1147,80 @@
       <c r="M2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="N2" s="16">
+        <v>42654</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="27"/>
       <c r="T2" s="28"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="16">
+        <v>42653</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="16">
+        <v>42653</v>
+      </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="J3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42654</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="27"/>
       <c r="T3" s="28"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>29</v>
@@ -1194,7 +1236,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>31</v>
@@ -1205,8 +1247,12 @@
       <c r="M4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="16">
+        <v>42654</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1218,13 +1264,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>29</v>
@@ -1240,7 +1286,7 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>31</v>
@@ -1251,8 +1297,12 @@
       <c r="M5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="16">
+        <v>42654</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1263,20 +1313,46 @@
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="16">
+        <v>42653</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="16">
+        <v>42653</v>
+      </c>
       <c r="I6" s="15"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="24"/>
+      <c r="J6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42654</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -1288,13 +1364,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>29</v>
@@ -1310,7 +1386,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>31</v>
@@ -1321,8 +1397,12 @@
       <c r="M7" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
+      <c r="N7" s="16">
+        <v>42654</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -1333,40 +1413,18 @@
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="16">
-        <v>42653</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="16">
-        <v>42653</v>
-      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>47</v>
-      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="16"/>
       <c r="O8" s="24"/>
       <c r="P8" s="21"/>
@@ -1379,40 +1437,18 @@
       <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="16">
-        <v>42653</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="16">
-        <v>42653</v>
-      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>47</v>
-      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="16"/>
       <c r="O9" s="24"/>
       <c r="P9" s="21"/>
@@ -1518,15 +1554,13 @@
       <c r="T13" s="28"/>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
+      <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="15"/>
       <c r="J14" s="24"/>
@@ -1542,15 +1576,13 @@
       <c r="T14" s="28"/>
     </row>
     <row r="15" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
+      <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="15"/>
       <c r="J15" s="24"/>
@@ -1742,92 +1774,90 @@
       <c r="T23" s="28"/>
     </row>
     <row r="24" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="24"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="19"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
-      <c r="S24" s="27"/>
+      <c r="S24" s="19"/>
       <c r="T24" s="28"/>
     </row>
     <row r="25" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="24"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="19"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
-      <c r="S25" s="27"/>
+      <c r="S25" s="19"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
+    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="19"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="22"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="28"/>
-    </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="18"/>
+      <c r="S26" s="22"/>
+    </row>
+    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="19"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="22"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="28"/>
+      <c r="S27" s="22"/>
     </row>
     <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
@@ -2947,7 +2977,7 @@
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
       <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
+      <c r="E81" s="21"/>
       <c r="F81" s="23"/>
       <c r="G81" s="21"/>
       <c r="H81" s="23"/>
@@ -2968,7 +2998,7 @@
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
       <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
+      <c r="E82" s="21"/>
       <c r="F82" s="23"/>
       <c r="G82" s="21"/>
       <c r="H82" s="23"/>
@@ -3068,11 +3098,11 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
-      <c r="D87" s="15"/>
+      <c r="D87" s="21"/>
       <c r="E87" s="21"/>
       <c r="F87" s="23"/>
       <c r="G87" s="21"/>
@@ -3089,11 +3119,11 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
-      <c r="D88" s="15"/>
+      <c r="D88" s="21"/>
       <c r="E88" s="21"/>
       <c r="F88" s="23"/>
       <c r="G88" s="21"/>
@@ -4344,9 +4374,6 @@
       <c r="M147" s="21"/>
       <c r="N147" s="23"/>
       <c r="O147" s="22"/>
-      <c r="P147" s="21"/>
-      <c r="Q147" s="21"/>
-      <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.15">
@@ -4365,9 +4392,6 @@
       <c r="M148" s="21"/>
       <c r="N148" s="23"/>
       <c r="O148" s="22"/>
-      <c r="P148" s="21"/>
-      <c r="Q148" s="21"/>
-      <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.15">
@@ -4963,42 +4987,6 @@
       <c r="N181" s="23"/>
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="21"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="23"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="23"/>
-      <c r="I182" s="26"/>
-      <c r="J182" s="21"/>
-      <c r="K182" s="21"/>
-      <c r="L182" s="21"/>
-      <c r="M182" s="21"/>
-      <c r="N182" s="23"/>
-      <c r="O182" s="22"/>
-      <c r="S182" s="22"/>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A183" s="21"/>
-      <c r="B183" s="22"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="21"/>
-      <c r="F183" s="23"/>
-      <c r="G183" s="21"/>
-      <c r="H183" s="23"/>
-      <c r="I183" s="26"/>
-      <c r="J183" s="21"/>
-      <c r="K183" s="21"/>
-      <c r="L183" s="21"/>
-      <c r="M183" s="21"/>
-      <c r="N183" s="23"/>
-      <c r="O183" s="22"/>
-      <c r="S183" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -285,12 +285,64 @@
     <t>Y</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>退房后和蘑菇宝的账单不能支付</t>
+    <rPh sb="0" eb="1">
+      <t>tui'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo'gu'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhang'd</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+  </si>
+  <si>
+    <t>H5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ling'l</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超、纪伟玉</t>
+    <rPh sb="0" eb="1">
+      <t>shi'c</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -376,8 +428,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +452,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -462,7 +526,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,8 +596,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,8 +703,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="31">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -635,6 +720,9 @@
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -648,6 +736,9 @@
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1021,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1413,20 +1504,46 @@
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="16">
+        <v>42654</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="16">
+        <v>42654</v>
+      </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="24"/>
+      <c r="J8" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="16">
+        <v>42654</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_捷豹组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.0.3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.3 新特性|Fix Bug'!$A$1:$S$1</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -341,8 +336,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -432,7 +427,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -770,6 +766,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -789,7 +853,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1109,39 +1173,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="15" style="10" customWidth="1"/>
     <col min="4" max="4" width="18" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="11" customWidth="1"/>
     <col min="10" max="10" width="33" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="10" customWidth="1"/>
     <col min="13" max="13" width="10" style="11" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="11" customWidth="1"/>
     <col min="16" max="16" width="12" style="12" customWidth="1"/>
     <col min="17" max="17" width="17" style="12" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="30.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="30.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1250,7 +1314,7 @@
       <c r="S2" s="27"/>
       <c r="T2" s="28"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1300,7 +1364,7 @@
       <c r="S3" s="27"/>
       <c r="T3" s="28"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1350,7 +1414,7 @@
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1400,7 +1464,7 @@
       <c r="S5" s="27"/>
       <c r="T5" s="28"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1450,7 +1514,7 @@
       <c r="S6" s="27"/>
       <c r="T6" s="28"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1500,7 +1564,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="28"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1550,7 +1614,7 @@
       <c r="S8" s="27"/>
       <c r="T8" s="28"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1574,7 +1638,7 @@
       <c r="S9" s="27"/>
       <c r="T9" s="28"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1598,7 +1662,7 @@
       <c r="S10" s="27"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1622,7 +1686,7 @@
       <c r="S11" s="27"/>
       <c r="T11" s="28"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1646,7 +1710,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="28"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1670,7 +1734,7 @@
       <c r="S13" s="27"/>
       <c r="T13" s="28"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="15"/>
@@ -1692,7 +1756,7 @@
       <c r="S14" s="27"/>
       <c r="T14" s="28"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
@@ -1714,7 +1778,7 @@
       <c r="S15" s="27"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
@@ -1736,7 +1800,7 @@
       <c r="S16" s="27"/>
       <c r="T16" s="28"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
@@ -1758,7 +1822,7 @@
       <c r="S17" s="27"/>
       <c r="T17" s="28"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
@@ -1780,7 +1844,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="28"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14"/>
       <c r="B19" s="17"/>
       <c r="C19" s="15"/>
@@ -1802,7 +1866,7 @@
       <c r="S19" s="27"/>
       <c r="T19" s="28"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14"/>
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
@@ -1824,7 +1888,7 @@
       <c r="S20" s="27"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14"/>
       <c r="B21" s="17"/>
       <c r="C21" s="15"/>
@@ -1846,7 +1910,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="28"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="C22" s="15"/>
@@ -1868,7 +1932,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="28"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="17"/>
       <c r="C23" s="15"/>
@@ -1890,7 +1954,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="28"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
@@ -1912,7 +1976,7 @@
       <c r="S24" s="19"/>
       <c r="T24" s="28"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="18"/>
@@ -1934,7 +1998,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" ht="16.5">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="21"/>
@@ -1955,7 +2019,7 @@
       <c r="R26" s="21"/>
       <c r="S26" s="22"/>
     </row>
-    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" ht="16.5">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="21"/>
@@ -1976,7 +2040,7 @@
       <c r="R27" s="21"/>
       <c r="S27" s="22"/>
     </row>
-    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" ht="16.5">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="21"/>
@@ -1997,7 +2061,7 @@
       <c r="R28" s="21"/>
       <c r="S28" s="22"/>
     </row>
-    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" ht="16.5">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="21"/>
@@ -2018,7 +2082,7 @@
       <c r="R29" s="21"/>
       <c r="S29" s="22"/>
     </row>
-    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" ht="16.5">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="21"/>
@@ -2039,7 +2103,7 @@
       <c r="R30" s="21"/>
       <c r="S30" s="22"/>
     </row>
-    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" ht="16.5">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="21"/>
@@ -2060,7 +2124,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" ht="16.5">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="21"/>
@@ -2081,7 +2145,7 @@
       <c r="R32" s="21"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="21"/>
@@ -2102,7 +2166,7 @@
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
     </row>
-    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="21"/>
@@ -2123,7 +2187,7 @@
       <c r="R34" s="21"/>
       <c r="S34" s="22"/>
     </row>
-    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
@@ -2144,7 +2208,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="21"/>
@@ -2165,7 +2229,7 @@
       <c r="R36" s="21"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
@@ -2186,7 +2250,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -2207,7 +2271,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -2228,7 +2292,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -2249,7 +2313,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -2270,7 +2334,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -2291,7 +2355,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -2312,7 +2376,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -2333,7 +2397,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -2354,7 +2418,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -2375,7 +2439,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -2396,7 +2460,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -2417,7 +2481,7 @@
       <c r="R48" s="21"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
@@ -2438,7 +2502,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
@@ -2459,7 +2523,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
@@ -2480,7 +2544,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -2501,7 +2565,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -2522,7 +2586,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -2543,7 +2607,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -2564,7 +2628,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2585,7 +2649,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2606,7 +2670,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2627,7 +2691,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2648,7 +2712,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2669,7 +2733,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2690,7 +2754,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2711,7 +2775,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2732,7 +2796,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2753,7 +2817,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2774,7 +2838,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2795,7 +2859,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -2816,7 +2880,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -2837,7 +2901,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -2858,7 +2922,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -2879,7 +2943,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -2900,7 +2964,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -2921,7 +2985,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -2942,7 +3006,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -2963,7 +3027,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -2984,7 +3048,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -3005,7 +3069,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -3026,7 +3090,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -3047,7 +3111,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -3068,7 +3132,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -3089,7 +3153,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -3110,7 +3174,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -3131,7 +3195,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -3152,7 +3216,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -3173,7 +3237,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -3194,7 +3258,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -3215,7 +3279,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -3236,7 +3300,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3257,7 +3321,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3278,7 +3342,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3299,7 +3363,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3320,7 +3384,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3341,7 +3405,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3362,7 +3426,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3383,7 +3447,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3404,7 +3468,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3425,7 +3489,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3446,7 +3510,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3467,7 +3531,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3488,7 +3552,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3509,7 +3573,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3530,7 +3594,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3551,7 +3615,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3572,7 +3636,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3593,7 +3657,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3614,7 +3678,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3635,7 +3699,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3656,7 +3720,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3677,7 +3741,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3698,7 +3762,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3719,7 +3783,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3740,7 +3804,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3761,7 +3825,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -3782,7 +3846,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -3803,7 +3867,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -3824,7 +3888,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -3845,7 +3909,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -3866,7 +3930,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -3887,7 +3951,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -3908,7 +3972,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -3929,7 +3993,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -3950,7 +4014,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -3971,7 +4035,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -3992,7 +4056,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -4013,7 +4077,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -4034,7 +4098,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -4055,7 +4119,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -4076,7 +4140,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -4097,7 +4161,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -4118,7 +4182,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -4139,7 +4203,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -4160,7 +4224,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -4181,7 +4245,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -4202,7 +4266,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -4223,7 +4287,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -4244,7 +4308,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -4265,7 +4329,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -4286,7 +4350,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -4307,7 +4371,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -4328,7 +4392,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -4349,7 +4413,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -4370,7 +4434,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -4391,7 +4455,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -4412,7 +4476,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -4433,7 +4497,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -4454,7 +4518,7 @@
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -4475,7 +4539,7 @@
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4493,7 +4557,7 @@
       <c r="O147" s="22"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4511,7 +4575,7 @@
       <c r="O148" s="22"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4529,7 +4593,7 @@
       <c r="O149" s="22"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4547,7 +4611,7 @@
       <c r="O150" s="22"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4565,7 +4629,7 @@
       <c r="O151" s="22"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4583,7 +4647,7 @@
       <c r="O152" s="22"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4601,7 +4665,7 @@
       <c r="O153" s="22"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4619,7 +4683,7 @@
       <c r="O154" s="22"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4637,7 +4701,7 @@
       <c r="O155" s="22"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4655,7 +4719,7 @@
       <c r="O156" s="22"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4673,7 +4737,7 @@
       <c r="O157" s="22"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4691,7 +4755,7 @@
       <c r="O158" s="22"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4709,7 +4773,7 @@
       <c r="O159" s="22"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4727,7 +4791,7 @@
       <c r="O160" s="22"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -4745,7 +4809,7 @@
       <c r="O161" s="22"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -4763,7 +4827,7 @@
       <c r="O162" s="22"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -4781,7 +4845,7 @@
       <c r="O163" s="22"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -4799,7 +4863,7 @@
       <c r="O164" s="22"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -4817,7 +4881,7 @@
       <c r="O165" s="22"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -4835,7 +4899,7 @@
       <c r="O166" s="22"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -4853,7 +4917,7 @@
       <c r="O167" s="22"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -4871,7 +4935,7 @@
       <c r="O168" s="22"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -4889,7 +4953,7 @@
       <c r="O169" s="22"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -4907,7 +4971,7 @@
       <c r="O170" s="22"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -4925,7 +4989,7 @@
       <c r="O171" s="22"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -4943,7 +5007,7 @@
       <c r="O172" s="22"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -4961,7 +5025,7 @@
       <c r="O173" s="22"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -4979,7 +5043,7 @@
       <c r="O174" s="22"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -4997,7 +5061,7 @@
       <c r="O175" s="22"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -5015,7 +5079,7 @@
       <c r="O176" s="22"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -5033,7 +5097,7 @@
       <c r="O177" s="22"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -5051,7 +5115,7 @@
       <c r="O178" s="22"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -5069,7 +5133,7 @@
       <c r="O179" s="22"/>
       <c r="S179" s="22"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -5087,7 +5151,7 @@
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -5114,25 +5178,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -5158,7 +5222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5168,7 +5232,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5178,7 +5242,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5188,7 +5252,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5198,7 +5262,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5208,7 +5272,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5218,7 +5282,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5228,7 +5292,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5238,7 +5302,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5248,7 +5312,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5258,7 +5322,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5268,7 +5332,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5278,7 +5342,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5288,7 +5352,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5298,7 +5362,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5308,7 +5372,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5318,7 +5382,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5328,7 +5392,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
